--- a/CE_Data_Public.xlsx
+++ b/CE_Data_Public.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohqi\Documents\CE_Aviation_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D036C4A-E813-4795-A320-6E3932973560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E810E026-3E92-4750-9822-6B4A62934D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="900" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="2340" windowWidth="21600" windowHeight="11295" tabRatio="900" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHEM ENG DATA" sheetId="15" state="hidden" r:id="rId1"/>
     <sheet name="CO2e ICL SUM" sheetId="14" state="hidden" r:id="rId2"/>
     <sheet name="CO2e ICL" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="LongHaul" sheetId="40" r:id="rId4"/>
-    <sheet name="ShortHaul" sheetId="41" r:id="rId5"/>
-    <sheet name="Domestic" sheetId="42" r:id="rId6"/>
-    <sheet name="CO2e CLASS 1" sheetId="8" state="hidden" r:id="rId7"/>
-    <sheet name="CO2e GEOG" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="Report criteria" sheetId="1" state="hidden" r:id="rId9"/>
+    <sheet name="Population" sheetId="43" r:id="rId4"/>
+    <sheet name="LongHaul" sheetId="40" r:id="rId5"/>
+    <sheet name="ShortHaul" sheetId="41" r:id="rId6"/>
+    <sheet name="Domestic" sheetId="42" r:id="rId7"/>
+    <sheet name="CO2e CLASS 1" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="CO2e GEOG" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Report criteria" sheetId="1" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8596" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8605" uniqueCount="292">
   <si>
     <t>Company Name</t>
   </si>
@@ -899,6 +900,30 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>PGT</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>PT-PGT</t>
+  </si>
+  <si>
+    <t>PT-PGR</t>
+  </si>
+  <si>
+    <t>ACAD</t>
+  </si>
+  <si>
+    <t>RSCH</t>
+  </si>
+  <si>
+    <t>SPPT</t>
   </si>
 </sst>
 </file>
@@ -61437,6 +61462,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82116131-3D88-45CA-A689-3E695830240F}">
   <dimension ref="A1:F17"/>
@@ -62442,6 +62583,198 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651877B-C184-4433-B66A-EA802EE2AF32}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>536</v>
+      </c>
+      <c r="C2">
+        <v>129</v>
+      </c>
+      <c r="D2">
+        <v>199</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>108</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>561</v>
+      </c>
+      <c r="C3">
+        <v>163</v>
+      </c>
+      <c r="D3">
+        <v>252</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>95</v>
+      </c>
+      <c r="I3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>581</v>
+      </c>
+      <c r="C4">
+        <v>144</v>
+      </c>
+      <c r="D4">
+        <v>246</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5">
+        <v>595</v>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>233</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>89</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6">
+        <v>595</v>
+      </c>
+      <c r="C6">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>240</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
+      </c>
+      <c r="I6">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C252FC-5199-4AB1-870A-B23F2090EE85}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -62449,7 +62782,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62579,7 +62912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6DCDF0-9048-4609-9C61-63CF06462791}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -62717,14 +63050,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4D7A73-60C6-4A27-A869-9C3156732C1D}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -62855,7 +63188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDAD582-A8A3-4BF5-AB5E-FC4927FD49B5}">
   <dimension ref="A1:F183"/>
   <sheetViews>
@@ -63008,365 +63341,6 @@
       </c>
       <c r="E11" s="5">
         <v>480868.81999999966</v>
-      </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D67F0A-4561-421D-9E49-9017CF2803F8}">
-  <dimension ref="A1:F183"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="6" width="20.42578125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1044.57</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1514</v>
-      </c>
-      <c r="E8" s="5">
-        <v>3147.8900000000012</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="5">
-        <v>6003.2200000000012</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3445.8999999999996</v>
-      </c>
-      <c r="D9" s="5">
-        <v>24007.11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>49704.970000000045</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5">
-        <v>14458.02</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7336.14</v>
-      </c>
-      <c r="D10" s="5">
-        <v>129965.86</v>
-      </c>
-      <c r="E10" s="5">
-        <v>428015.95999999996</v>
-      </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="5">
-        <v>21505.81</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10782.04</v>
-      </c>
-      <c r="D11" s="5">
-        <v>155486.97</v>
-      </c>
-      <c r="E11" s="5">
-        <v>480868.82</v>
       </c>
       <c r="F11"/>
     </row>
@@ -63573,116 +63547,359 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D67F0A-4561-421D-9E49-9017CF2803F8}">
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="6" width="20.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1044.57</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1514</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3147.8900000000012</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6003.2200000000012</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3445.8999999999996</v>
+      </c>
+      <c r="D9" s="5">
+        <v>24007.11</v>
+      </c>
+      <c r="E9" s="5">
+        <v>49704.970000000045</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5">
+        <v>14458.02</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7336.14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>129965.86</v>
+      </c>
+      <c r="E10" s="5">
+        <v>428015.95999999996</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="5">
+        <v>21505.81</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10782.04</v>
+      </c>
+      <c r="D11" s="5">
+        <v>155486.97</v>
+      </c>
+      <c r="E11" s="5">
+        <v>480868.82</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
